--- a/biology/Médecine/Radiographie_de_l'abdomen_sans_préparation/Radiographie_de_l'abdomen_sans_préparation.xlsx
+++ b/biology/Médecine/Radiographie_de_l'abdomen_sans_préparation/Radiographie_de_l'abdomen_sans_préparation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Radiographie_de_l%27abdomen_sans_pr%C3%A9paration</t>
+          <t>Radiographie_de_l'abdomen_sans_préparation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La radiographie de l'abdomen sans préparation, plus souvent abrégé « Abdomen sans préparation » (ASP) ou abdomen à blanc consiste à radiographier l'abdomen sans produit de contraste, contrairement au transit baryté ou au lavement baryté.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Radiographie_de_l%27abdomen_sans_pr%C3%A9paration</t>
+          <t>Radiographie_de_l'abdomen_sans_préparation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cet examen médical est souvent un examen d'orientation réalisé dans un premier temps, avant un scanner par exemple, car il est peu performant. 
 Il permet cependant de diagnostiquer entre autres :
@@ -520,7 +534,7 @@
 constipation
 occlusion intestinale
 la présence d'objets métalliques (grenaille de plomb de chasse, plomb de pêche, projectile d'arme à feu... notamment) ou opaques aux rayons x (morceau de cristal)
-une pica (qui se traduit par une légère opacification de tout ou partie de l'intestin (si l'ingestion a eu lieu dans les 24 à 36 h avant l'examen)[1].</t>
+une pica (qui se traduit par une légère opacification de tout ou partie de l'intestin (si l'ingestion a eu lieu dans les 24 à 36 h avant l'examen).</t>
         </is>
       </c>
     </row>
